--- a/Calculo_Rev.xlsx
+++ b/Calculo_Rev.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Mi_destino_Revelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\mi_destino_rev_adri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A2400-14A9-40E3-A09F-0E50171ABB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A816EC1-7645-4882-BDAC-4954B448ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{913D9A4B-CC00-4B5D-8BC5-5CE6CCF67043}"/>
   </bookViews>
@@ -34,8 +34,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,18 +388,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D30387-F08C-4832-BA51-A705D6845B15}">
-  <dimension ref="B4"/>
+  <dimension ref="B4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
